--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>159.6876246666667</v>
+        <v>107.0345256666667</v>
       </c>
       <c r="H2">
-        <v>479.062874</v>
+        <v>321.103577</v>
       </c>
       <c r="I2">
-        <v>0.6760655881520331</v>
+        <v>0.7987956787983527</v>
       </c>
       <c r="J2">
-        <v>0.7341249043125203</v>
+        <v>0.8128030402453994</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.36823166666667</v>
+        <v>20.40908266666667</v>
       </c>
       <c r="N2">
-        <v>58.10469500000001</v>
+        <v>61.227248</v>
       </c>
       <c r="O2">
-        <v>0.9049300397257884</v>
+        <v>0.9060545395061974</v>
       </c>
       <c r="P2">
-        <v>0.912112002070845</v>
+        <v>0.9067590470015383</v>
       </c>
       <c r="Q2">
-        <v>3092.866908843715</v>
+        <v>2184.476482518455</v>
       </c>
       <c r="R2">
-        <v>27835.80217959343</v>
+        <v>19660.2883426661</v>
       </c>
       <c r="S2">
-        <v>0.6117920595436579</v>
+        <v>0.7237524509131819</v>
       </c>
       <c r="T2">
-        <v>0.6696041362425604</v>
+        <v>0.7370165101728714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>159.6876246666667</v>
+        <v>107.0345256666667</v>
       </c>
       <c r="H3">
-        <v>479.062874</v>
+        <v>321.103577</v>
       </c>
       <c r="I3">
-        <v>0.6760655881520331</v>
+        <v>0.7987956787983527</v>
       </c>
       <c r="J3">
-        <v>0.7341249043125203</v>
+        <v>0.8128030402453994</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.0216</v>
       </c>
       <c r="O3">
-        <v>0.0003364011954296813</v>
+        <v>0.0003196416414687439</v>
       </c>
       <c r="P3">
-        <v>0.0003390710379725812</v>
+        <v>0.0003198901805162504</v>
       </c>
       <c r="Q3">
-        <v>1.1497508976</v>
+        <v>0.7706485848</v>
       </c>
       <c r="R3">
-        <v>10.3477580784</v>
+        <v>6.9358372632</v>
       </c>
       <c r="S3">
-        <v>0.0002274292720432146</v>
+        <v>0.0002553283619692449</v>
       </c>
       <c r="T3">
-        <v>0.0002489204933067681</v>
+        <v>0.0002600077112682579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>159.6876246666667</v>
+        <v>107.0345256666667</v>
       </c>
       <c r="H4">
-        <v>479.062874</v>
+        <v>321.103577</v>
       </c>
       <c r="I4">
-        <v>0.6760655881520331</v>
+        <v>0.7987956787983527</v>
       </c>
       <c r="J4">
-        <v>0.7341249043125203</v>
+        <v>0.8128030402453994</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8591763333333334</v>
+        <v>1.268515666666667</v>
       </c>
       <c r="N4">
-        <v>2.577529</v>
+        <v>3.805547</v>
       </c>
       <c r="O4">
-        <v>0.04014277022475329</v>
+        <v>0.05631533748918767</v>
       </c>
       <c r="P4">
-        <v>0.04046136265900135</v>
+        <v>0.05635912577745716</v>
       </c>
       <c r="Q4">
-        <v>137.1998278398162</v>
+        <v>135.7749726824021</v>
       </c>
       <c r="R4">
-        <v>1234.798450558346</v>
+        <v>1221.974754141619</v>
       </c>
       <c r="S4">
-        <v>0.02713914556204976</v>
+        <v>0.04498444823643398</v>
       </c>
       <c r="T4">
-        <v>0.02970369399039355</v>
+        <v>0.04580886877749004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>159.6876246666667</v>
+        <v>107.0345256666667</v>
       </c>
       <c r="H5">
-        <v>479.062874</v>
+        <v>321.103577</v>
       </c>
       <c r="I5">
-        <v>0.6760655881520331</v>
+        <v>0.7987956787983527</v>
       </c>
       <c r="J5">
-        <v>0.7341249043125203</v>
+        <v>0.8128030402453994</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5055815</v>
+        <v>0.05250299999999999</v>
       </c>
       <c r="N5">
-        <v>1.011163</v>
+        <v>0.105006</v>
       </c>
       <c r="O5">
-        <v>0.02362197513710159</v>
+        <v>0.002330853486393536</v>
       </c>
       <c r="P5">
-        <v>0.01587296703562357</v>
+        <v>0.00155511056922636</v>
       </c>
       <c r="Q5">
-        <v>80.73510881041034</v>
+        <v>5.619633701076999</v>
       </c>
       <c r="R5">
-        <v>484.410652862462</v>
+        <v>33.717802206462</v>
       </c>
       <c r="S5">
-        <v>0.01597000451437729</v>
+        <v>0.001861875692843231</v>
       </c>
       <c r="T5">
-        <v>0.01165274040618294</v>
+        <v>0.001263998598584939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.6876246666667</v>
+        <v>107.0345256666667</v>
       </c>
       <c r="H6">
-        <v>479.062874</v>
+        <v>321.103577</v>
       </c>
       <c r="I6">
-        <v>0.6760655881520331</v>
+        <v>0.7987956787983527</v>
       </c>
       <c r="J6">
-        <v>0.7341249043125203</v>
+        <v>0.8128030402453994</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.662826</v>
+        <v>0.787924</v>
       </c>
       <c r="N6">
-        <v>1.988478</v>
+        <v>2.363772</v>
       </c>
       <c r="O6">
-        <v>0.03096881371692694</v>
+        <v>0.03497962787675257</v>
       </c>
       <c r="P6">
-        <v>0.03121459719655752</v>
+        <v>0.03500682647126194</v>
       </c>
       <c r="Q6">
-        <v>105.845109507308</v>
+        <v>84.33507160138265</v>
       </c>
       <c r="R6">
-        <v>952.6059855657721</v>
+        <v>759.015644412444</v>
       </c>
       <c r="S6">
-        <v>0.02093694925990496</v>
+        <v>0.02794157559392435</v>
       </c>
       <c r="T6">
-        <v>0.02291541318007665</v>
+        <v>0.02845365498518483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>49.884983</v>
       </c>
       <c r="I7">
-        <v>0.07039894385940075</v>
+        <v>0.1240967454477447</v>
       </c>
       <c r="J7">
-        <v>0.07644468056087915</v>
+        <v>0.1262728563281937</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.36823166666667</v>
+        <v>20.40908266666667</v>
       </c>
       <c r="N7">
-        <v>58.10469500000001</v>
+        <v>61.227248</v>
       </c>
       <c r="O7">
-        <v>0.9049300397257884</v>
+        <v>0.9060545395061974</v>
       </c>
       <c r="P7">
-        <v>0.912112002070845</v>
+        <v>0.9067590470015383</v>
       </c>
       <c r="Q7">
-        <v>322.0613024772429</v>
+        <v>339.3689139574204</v>
       </c>
       <c r="R7">
-        <v>2898.551722295185</v>
+        <v>3054.320225616784</v>
       </c>
       <c r="S7">
-        <v>0.06370611906334107</v>
+        <v>0.1124384195508741</v>
       </c>
       <c r="T7">
-        <v>0.06972611063404968</v>
+        <v>0.1144990548663151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>49.884983</v>
       </c>
       <c r="I8">
-        <v>0.07039894385940075</v>
+        <v>0.1240967454477447</v>
       </c>
       <c r="J8">
-        <v>0.07644468056087915</v>
+        <v>0.1262728563281937</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.0216</v>
       </c>
       <c r="O8">
-        <v>0.0003364011954296813</v>
+        <v>0.0003196416414687439</v>
       </c>
       <c r="P8">
-        <v>0.0003390710379725812</v>
+        <v>0.0003198901805162504</v>
       </c>
       <c r="Q8">
         <v>0.1197239592</v>
@@ -948,10 +948,10 @@
         <v>1.0775156328</v>
       </c>
       <c r="S8">
-        <v>2.368228887128944E-05</v>
+        <v>3.966648741584598E-05</v>
       </c>
       <c r="T8">
-        <v>2.59201771852597E-05</v>
+        <v>4.039344680512842E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>49.884983</v>
       </c>
       <c r="I9">
-        <v>0.07039894385940075</v>
+        <v>0.1240967454477447</v>
       </c>
       <c r="J9">
-        <v>0.07644468056087915</v>
+        <v>0.1262728563281937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8591763333333334</v>
+        <v>1.268515666666667</v>
       </c>
       <c r="N9">
-        <v>2.577529</v>
+        <v>3.805547</v>
       </c>
       <c r="O9">
-        <v>0.04014277022475329</v>
+        <v>0.05631533748918767</v>
       </c>
       <c r="P9">
-        <v>0.04046136265900135</v>
+        <v>0.05635912577745716</v>
       </c>
       <c r="Q9">
-        <v>14.28666559411189</v>
+        <v>21.09329415563344</v>
       </c>
       <c r="R9">
-        <v>128.579990347007</v>
+        <v>189.839647400701</v>
       </c>
       <c r="S9">
-        <v>0.002826008627413231</v>
+        <v>0.006988550101199556</v>
       </c>
       <c r="T9">
-        <v>0.003093055943525242</v>
+        <v>0.007116627792079444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>49.884983</v>
       </c>
       <c r="I10">
-        <v>0.07039894385940075</v>
+        <v>0.1240967454477447</v>
       </c>
       <c r="J10">
-        <v>0.07644468056087915</v>
+        <v>0.1262728563281937</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5055815</v>
+        <v>0.05250299999999999</v>
       </c>
       <c r="N10">
-        <v>1.011163</v>
+        <v>0.105006</v>
       </c>
       <c r="O10">
-        <v>0.02362197513710159</v>
+        <v>0.002330853486393536</v>
       </c>
       <c r="P10">
-        <v>0.01587296703562357</v>
+        <v>0.00155511056922636</v>
       </c>
       <c r="Q10">
-        <v>8.406974844204834</v>
+        <v>0.8730370874829999</v>
       </c>
       <c r="R10">
-        <v>50.441849065229</v>
+        <v>5.238222524897999</v>
       </c>
       <c r="S10">
-        <v>0.001662962101524975</v>
+        <v>0.0002892513317769668</v>
       </c>
       <c r="T10">
-        <v>0.001213403894591609</v>
+        <v>0.0001963682534823756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>49.884983</v>
       </c>
       <c r="I11">
-        <v>0.07039894385940075</v>
+        <v>0.1240967454477447</v>
       </c>
       <c r="J11">
-        <v>0.07644468056087915</v>
+        <v>0.1262728563281937</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.662826</v>
+        <v>0.787924</v>
       </c>
       <c r="N11">
-        <v>1.988478</v>
+        <v>2.363772</v>
       </c>
       <c r="O11">
-        <v>0.03096881371692694</v>
+        <v>0.03497962787675257</v>
       </c>
       <c r="P11">
-        <v>0.03121459719655752</v>
+        <v>0.03500682647126194</v>
       </c>
       <c r="Q11">
-        <v>11.021687913986</v>
+        <v>13.10185844843067</v>
       </c>
       <c r="R11">
-        <v>99.19519122587401</v>
+        <v>117.916726035876</v>
       </c>
       <c r="S11">
-        <v>0.002180171778250179</v>
+        <v>0.004340857976478199</v>
       </c>
       <c r="T11">
-        <v>0.002386189911527353</v>
+        <v>0.004420411969511666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.645999666666667</v>
+        <v>1.308491666666667</v>
       </c>
       <c r="H12">
-        <v>7.937999</v>
+        <v>3.925475</v>
       </c>
       <c r="I12">
-        <v>0.01120230402718548</v>
+        <v>0.009765236801553797</v>
       </c>
       <c r="J12">
-        <v>0.0121643380703884</v>
+        <v>0.009936476087300982</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.36823166666667</v>
+        <v>20.40908266666667</v>
       </c>
       <c r="N12">
-        <v>58.10469500000001</v>
+        <v>61.227248</v>
       </c>
       <c r="O12">
-        <v>0.9049300397257884</v>
+        <v>0.9060545395061974</v>
       </c>
       <c r="P12">
-        <v>0.912112002070845</v>
+        <v>0.9067590470015383</v>
       </c>
       <c r="Q12">
-        <v>51.24833453392279</v>
+        <v>26.70511459364444</v>
       </c>
       <c r="R12">
-        <v>461.235010805305</v>
+        <v>240.3460313428</v>
       </c>
       <c r="S12">
-        <v>0.01013730142834132</v>
+        <v>0.008847837133400798</v>
       </c>
       <c r="T12">
-        <v>0.01109523875124856</v>
+        <v>0.009009989587474612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.645999666666667</v>
+        <v>1.308491666666667</v>
       </c>
       <c r="H13">
-        <v>7.937999</v>
+        <v>3.925475</v>
       </c>
       <c r="I13">
-        <v>0.01120230402718548</v>
+        <v>0.009765236801553797</v>
       </c>
       <c r="J13">
-        <v>0.0121643380703884</v>
+        <v>0.009936476087300982</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.0216</v>
       </c>
       <c r="O13">
-        <v>0.0003364011954296813</v>
+        <v>0.0003196416414687439</v>
       </c>
       <c r="P13">
-        <v>0.0003390710379725812</v>
+        <v>0.0003198901805162504</v>
       </c>
       <c r="Q13">
-        <v>0.0190511976</v>
+        <v>0.00942114</v>
       </c>
       <c r="R13">
-        <v>0.1714607784</v>
+        <v>0.08479026000000001</v>
       </c>
       <c r="S13">
-        <v>3.768468466311929E-06</v>
+        <v>3.121376320579642E-06</v>
       </c>
       <c r="T13">
-        <v>4.12457473577598E-06</v>
+        <v>3.178581129262116E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.645999666666667</v>
+        <v>1.308491666666667</v>
       </c>
       <c r="H14">
-        <v>7.937999</v>
+        <v>3.925475</v>
       </c>
       <c r="I14">
-        <v>0.01120230402718548</v>
+        <v>0.009765236801553797</v>
       </c>
       <c r="J14">
-        <v>0.0121643380703884</v>
+        <v>0.009936476087300982</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8591763333333334</v>
+        <v>1.268515666666667</v>
       </c>
       <c r="N14">
-        <v>2.577529</v>
+        <v>3.805547</v>
       </c>
       <c r="O14">
-        <v>0.04014277022475329</v>
+        <v>0.05631533748918767</v>
       </c>
       <c r="P14">
-        <v>0.04046136265900135</v>
+        <v>0.05635912577745716</v>
       </c>
       <c r="Q14">
-        <v>2.273380291607889</v>
+        <v>1.659842178869444</v>
       </c>
       <c r="R14">
-        <v>20.460422624471</v>
+        <v>14.938579609825</v>
       </c>
       <c r="S14">
-        <v>0.0004496915165511351</v>
+        <v>0.0005499326061413377</v>
       </c>
       <c r="T14">
-        <v>0.0004921856941726818</v>
+        <v>0.0005600111055888915</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.645999666666667</v>
+        <v>1.308491666666667</v>
       </c>
       <c r="H15">
-        <v>7.937999</v>
+        <v>3.925475</v>
       </c>
       <c r="I15">
-        <v>0.01120230402718548</v>
+        <v>0.009765236801553797</v>
       </c>
       <c r="J15">
-        <v>0.0121643380703884</v>
+        <v>0.009936476087300982</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5055815</v>
+        <v>0.05250299999999999</v>
       </c>
       <c r="N15">
-        <v>1.011163</v>
+        <v>0.105006</v>
       </c>
       <c r="O15">
-        <v>0.02362197513710159</v>
+        <v>0.002330853486393536</v>
       </c>
       <c r="P15">
-        <v>0.01587296703562357</v>
+        <v>0.00155511056922636</v>
       </c>
       <c r="Q15">
-        <v>1.337768480472833</v>
+        <v>0.06869973797499999</v>
       </c>
       <c r="R15">
-        <v>8.026610882837</v>
+        <v>0.4121984278499999</v>
       </c>
       <c r="S15">
-        <v>0.0002646205472084284</v>
+        <v>2.276133624436013E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001930841372014559</v>
+        <v>1.545231898422675E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.645999666666667</v>
+        <v>1.308491666666667</v>
       </c>
       <c r="H16">
-        <v>7.937999</v>
+        <v>3.925475</v>
       </c>
       <c r="I16">
-        <v>0.01120230402718548</v>
+        <v>0.009765236801553797</v>
       </c>
       <c r="J16">
-        <v>0.0121643380703884</v>
+        <v>0.009936476087300982</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.662826</v>
+        <v>0.787924</v>
       </c>
       <c r="N16">
-        <v>1.988478</v>
+        <v>2.363772</v>
       </c>
       <c r="O16">
-        <v>0.03096881371692694</v>
+        <v>0.03497962787675257</v>
       </c>
       <c r="P16">
-        <v>0.03121459719655752</v>
+        <v>0.03500682647126194</v>
       </c>
       <c r="Q16">
-        <v>1.753837375058</v>
+        <v>1.030991987966666</v>
       </c>
       <c r="R16">
-        <v>15.784536375522</v>
+        <v>9.2789278917</v>
       </c>
       <c r="S16">
-        <v>0.0003469220666182875</v>
+        <v>0.0003415843494467213</v>
       </c>
       <c r="T16">
-        <v>0.0003797049130299236</v>
+        <v>0.0003478444941239893</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.04097</v>
+        <v>6.927562500000001</v>
       </c>
       <c r="H17">
-        <v>112.08194</v>
+        <v>13.855125</v>
       </c>
       <c r="I17">
-        <v>0.2372592830706003</v>
+        <v>0.05170020565923668</v>
       </c>
       <c r="J17">
-        <v>0.1717564602546547</v>
+        <v>0.03507119985455671</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.36823166666667</v>
+        <v>20.40908266666667</v>
       </c>
       <c r="N17">
-        <v>58.10469500000001</v>
+        <v>61.227248</v>
       </c>
       <c r="O17">
-        <v>0.9049300397257884</v>
+        <v>0.9060545395061974</v>
       </c>
       <c r="P17">
-        <v>0.912112002070845</v>
+        <v>0.9067590470015383</v>
       </c>
       <c r="Q17">
-        <v>1085.414489784717</v>
+        <v>141.385195741</v>
       </c>
       <c r="R17">
-        <v>6512.486938708301</v>
+        <v>848.3111744460001</v>
       </c>
       <c r="S17">
-        <v>0.2147030524543904</v>
+        <v>0.04684320603095539</v>
       </c>
       <c r="T17">
-        <v>0.1566611288314746</v>
+        <v>0.03180112775731834</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.04097</v>
+        <v>6.927562500000001</v>
       </c>
       <c r="H18">
-        <v>112.08194</v>
+        <v>13.855125</v>
       </c>
       <c r="I18">
-        <v>0.2372592830706003</v>
+        <v>0.05170020565923668</v>
       </c>
       <c r="J18">
-        <v>0.1717564602546547</v>
+        <v>0.03507119985455671</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.0216</v>
       </c>
       <c r="O18">
-        <v>0.0003364011954296813</v>
+        <v>0.0003196416414687439</v>
       </c>
       <c r="P18">
-        <v>0.0003390710379725812</v>
+        <v>0.0003198901805162504</v>
       </c>
       <c r="Q18">
-        <v>0.4034949840000001</v>
+        <v>0.04987845000000001</v>
       </c>
       <c r="R18">
-        <v>2.420969904</v>
+        <v>0.2992707000000001</v>
       </c>
       <c r="S18">
-        <v>7.98143064517391E-05</v>
+        <v>1.652553860119005E-05</v>
       </c>
       <c r="T18">
-        <v>5.823764125704215E-05</v>
+        <v>1.121893245239564E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.04097</v>
+        <v>6.927562500000001</v>
       </c>
       <c r="H19">
-        <v>112.08194</v>
+        <v>13.855125</v>
       </c>
       <c r="I19">
-        <v>0.2372592830706003</v>
+        <v>0.05170020565923668</v>
       </c>
       <c r="J19">
-        <v>0.1717564602546547</v>
+        <v>0.03507119985455671</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8591763333333334</v>
+        <v>1.268515666666667</v>
       </c>
       <c r="N19">
-        <v>2.577529</v>
+        <v>3.805547</v>
       </c>
       <c r="O19">
-        <v>0.04014277022475329</v>
+        <v>0.05631533748918767</v>
       </c>
       <c r="P19">
-        <v>0.04046136265900135</v>
+        <v>0.05635912577745716</v>
       </c>
       <c r="Q19">
-        <v>48.14907512104334</v>
+        <v>8.787721563062501</v>
       </c>
       <c r="R19">
-        <v>288.89445072626</v>
+        <v>52.726329378375</v>
       </c>
       <c r="S19">
-        <v>0.009524244883992807</v>
+        <v>0.002911514529960324</v>
       </c>
       <c r="T19">
-        <v>0.006949500427389935</v>
+        <v>0.001976582163769299</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.04097</v>
+        <v>6.927562500000001</v>
       </c>
       <c r="H20">
-        <v>112.08194</v>
+        <v>13.855125</v>
       </c>
       <c r="I20">
-        <v>0.2372592830706003</v>
+        <v>0.05170020565923668</v>
       </c>
       <c r="J20">
-        <v>0.1717564602546547</v>
+        <v>0.03507119985455671</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5055815</v>
+        <v>0.05250299999999999</v>
       </c>
       <c r="N20">
-        <v>1.011163</v>
+        <v>0.105006</v>
       </c>
       <c r="O20">
-        <v>0.02362197513710159</v>
+        <v>0.002330853486393536</v>
       </c>
       <c r="P20">
-        <v>0.01587296703562357</v>
+        <v>0.00155511056922636</v>
       </c>
       <c r="Q20">
-        <v>28.333277674055</v>
+        <v>0.3637178139375</v>
       </c>
       <c r="R20">
-        <v>113.33311069622</v>
+        <v>1.45487125575</v>
       </c>
       <c r="S20">
-        <v>0.005604532885740267</v>
+        <v>0.0001205056046080946</v>
       </c>
       <c r="T20">
-        <v>0.002726284631777524</v>
+        <v>5.453959356927113E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.04097</v>
+        <v>6.927562500000001</v>
       </c>
       <c r="H21">
-        <v>112.08194</v>
+        <v>13.855125</v>
       </c>
       <c r="I21">
-        <v>0.2372592830706003</v>
+        <v>0.05170020565923668</v>
       </c>
       <c r="J21">
-        <v>0.1717564602546547</v>
+        <v>0.03507119985455671</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.662826</v>
+        <v>0.787924</v>
       </c>
       <c r="N21">
-        <v>1.988478</v>
+        <v>2.363772</v>
       </c>
       <c r="O21">
-        <v>0.03096881371692694</v>
+        <v>0.03497962787675257</v>
       </c>
       <c r="P21">
-        <v>0.03121459719655752</v>
+        <v>0.03500682647126194</v>
       </c>
       <c r="Q21">
-        <v>37.14541198122</v>
+        <v>5.45839275525</v>
       </c>
       <c r="R21">
-        <v>222.87247188732</v>
+        <v>32.7503565315</v>
       </c>
       <c r="S21">
-        <v>0.007347638540025057</v>
+        <v>0.001808453955111676</v>
       </c>
       <c r="T21">
-        <v>0.005361308722755587</v>
+        <v>0.001227731407447414</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.198457666666667</v>
+        <v>2.095965666666666</v>
       </c>
       <c r="H22">
-        <v>3.595373</v>
+        <v>6.287896999999999</v>
       </c>
       <c r="I22">
-        <v>0.005073880890780403</v>
+        <v>0.01564213329311222</v>
       </c>
       <c r="J22">
-        <v>0.005509616801557491</v>
+        <v>0.0159164274845494</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.36823166666667</v>
+        <v>20.40908266666667</v>
       </c>
       <c r="N22">
-        <v>58.10469500000001</v>
+        <v>61.227248</v>
       </c>
       <c r="O22">
-        <v>0.9049300397257884</v>
+        <v>0.9060545395061974</v>
       </c>
       <c r="P22">
-        <v>0.912112002070845</v>
+        <v>0.9067590470015383</v>
       </c>
       <c r="Q22">
-        <v>23.21200573069278</v>
+        <v>42.77673655749511</v>
       </c>
       <c r="R22">
-        <v>208.908051576235</v>
+        <v>384.9906290174559</v>
       </c>
       <c r="S22">
-        <v>0.004591507236057829</v>
+        <v>0.01417262587778536</v>
       </c>
       <c r="T22">
-        <v>0.005025387611511768</v>
+        <v>0.01443236461755911</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.198457666666667</v>
+        <v>2.095965666666666</v>
       </c>
       <c r="H23">
-        <v>3.595373</v>
+        <v>6.287896999999999</v>
       </c>
       <c r="I23">
-        <v>0.005073880890780403</v>
+        <v>0.01564213329311222</v>
       </c>
       <c r="J23">
-        <v>0.005509616801557491</v>
+        <v>0.0159164274845494</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.0216</v>
       </c>
       <c r="O23">
-        <v>0.0003364011954296813</v>
+        <v>0.0003196416414687439</v>
       </c>
       <c r="P23">
-        <v>0.0003390710379725812</v>
+        <v>0.0003198901805162504</v>
       </c>
       <c r="Q23">
-        <v>0.008628895200000002</v>
+        <v>0.0150909528</v>
       </c>
       <c r="R23">
-        <v>0.07766005680000002</v>
+        <v>0.1358185752</v>
       </c>
       <c r="S23">
-        <v>1.706859597126344E-06</v>
+        <v>4.999877161883279E-06</v>
       </c>
       <c r="T23">
-        <v>1.868151487735271E-06</v>
+        <v>5.091508861206318E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.198457666666667</v>
+        <v>2.095965666666666</v>
       </c>
       <c r="H24">
-        <v>3.595373</v>
+        <v>6.287896999999999</v>
       </c>
       <c r="I24">
-        <v>0.005073880890780403</v>
+        <v>0.01564213329311222</v>
       </c>
       <c r="J24">
-        <v>0.005509616801557491</v>
+        <v>0.0159164274845494</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8591763333333334</v>
+        <v>1.268515666666667</v>
       </c>
       <c r="N24">
-        <v>2.577529</v>
+        <v>3.805547</v>
       </c>
       <c r="O24">
-        <v>0.04014277022475329</v>
+        <v>0.05631533748918767</v>
       </c>
       <c r="P24">
-        <v>0.04046136265900135</v>
+        <v>0.05635912577745716</v>
       </c>
       <c r="Q24">
-        <v>1.029686463701889</v>
+        <v>2.658765284962111</v>
       </c>
       <c r="R24">
-        <v>9.267178173317001</v>
+        <v>23.928887564659</v>
       </c>
       <c r="S24">
-        <v>0.0002036796347463643</v>
+        <v>0.0008808920154524735</v>
       </c>
       <c r="T24">
-        <v>0.0002229266035199447</v>
+        <v>0.000897035938529496</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.198457666666667</v>
+        <v>2.095965666666666</v>
       </c>
       <c r="H25">
-        <v>3.595373</v>
+        <v>6.287896999999999</v>
       </c>
       <c r="I25">
-        <v>0.005073880890780403</v>
+        <v>0.01564213329311222</v>
       </c>
       <c r="J25">
-        <v>0.005509616801557491</v>
+        <v>0.0159164274845494</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5055815</v>
+        <v>0.05250299999999999</v>
       </c>
       <c r="N25">
-        <v>1.011163</v>
+        <v>0.105006</v>
       </c>
       <c r="O25">
-        <v>0.02362197513710159</v>
+        <v>0.002330853486393536</v>
       </c>
       <c r="P25">
-        <v>0.01587296703562357</v>
+        <v>0.00155511056922636</v>
       </c>
       <c r="Q25">
-        <v>0.6059180247998335</v>
+        <v>0.110044485397</v>
       </c>
       <c r="R25">
-        <v>3.635508148799</v>
+        <v>0.6602669123819999</v>
       </c>
       <c r="S25">
-        <v>0.0001198550882506295</v>
+        <v>3.645952092088303E-05</v>
       </c>
       <c r="T25">
-        <v>8.745396587003982E-05</v>
+        <v>2.475180460554771E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.198457666666667</v>
+        <v>2.095965666666666</v>
       </c>
       <c r="H26">
-        <v>3.595373</v>
+        <v>6.287896999999999</v>
       </c>
       <c r="I26">
-        <v>0.005073880890780403</v>
+        <v>0.01564213329311222</v>
       </c>
       <c r="J26">
-        <v>0.005509616801557491</v>
+        <v>0.0159164274845494</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.662826</v>
+        <v>0.787924</v>
       </c>
       <c r="N26">
-        <v>1.988478</v>
+        <v>2.363772</v>
       </c>
       <c r="O26">
-        <v>0.03096881371692694</v>
+        <v>0.03497962787675257</v>
       </c>
       <c r="P26">
-        <v>0.03121459719655752</v>
+        <v>0.03500682647126194</v>
       </c>
       <c r="Q26">
-        <v>0.7943689013660001</v>
+        <v>1.651461651942666</v>
       </c>
       <c r="R26">
-        <v>7.149320112294001</v>
+        <v>14.863154867484</v>
       </c>
       <c r="S26">
-        <v>0.0001571320721284536</v>
+        <v>0.0005471560017916279</v>
       </c>
       <c r="T26">
-        <v>0.0001719804691680026</v>
+        <v>0.0005571836149940452</v>
       </c>
     </row>
   </sheetData>
